--- a/ProgramCode/stickGainsRet.xlsx
+++ b/ProgramCode/stickGainsRet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="proportional" sheetId="1" r:id="rId1"/>
@@ -340,8 +340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,28 +626,22 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
@@ -658,12 +652,10 @@
         <v>4000</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
@@ -699,28 +691,22 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
@@ -731,12 +717,10 @@
         <v>4000</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
@@ -1214,7 +1198,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1530,40 +1516,31 @@
         <v>1500</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="P5">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1603,40 +1580,31 @@
         <v>1500</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -2086,7 +2054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2370,72 +2340,55 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -2443,72 +2396,55 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
